--- a/StructureDefinition-C4BB-Organization.xlsx
+++ b/StructureDefinition-C4BB-Organization.xlsx
@@ -553,7 +553,7 @@
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
   &lt;type&gt;
     &lt;coding&gt;
-      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
+      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBIdentifierType"/&gt;
       &lt;code value="npi"/&gt;
     &lt;/coding&gt;
   &lt;/type&gt;
@@ -747,7 +747,7 @@
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
   &lt;type&gt;
     &lt;coding&gt;
-      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
+      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBIdentifierType"/&gt;
       &lt;code value="clia"/&gt;
     &lt;/coding&gt;
   &lt;/type&gt;
@@ -781,7 +781,7 @@
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
   &lt;type&gt;
     &lt;coding&gt;
-      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
+      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBIdentifierType"/&gt;
       &lt;code value="payerid"/&gt;
     &lt;/coding&gt;
   &lt;/type&gt;

--- a/StructureDefinition-C4BB-Organization.xlsx
+++ b/StructureDefinition-C4BB-Organization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="440">
   <si>
     <t>Path</t>
   </si>
@@ -745,12 +745,6 @@
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
-  &lt;type&gt;
-    &lt;coding&gt;
-      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBIdentifierType"/&gt;
-      &lt;code value="clia"/&gt;
-    &lt;/coding&gt;
-  &lt;/type&gt;
   &lt;system value="urn:oid:2.16.840.1.113883.4.7"/&gt;
 &lt;/valueIdentifier&gt;</t>
   </si>
@@ -788,6 +782,17 @@
 &lt;/valueIdentifier&gt;</t>
   </si>
   <si>
+    <t>naiccode</t>
+  </si>
+  <si>
+    <t>NAIC Code</t>
+  </si>
+  <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="urn:oid:2.16.840.1.113883.6.300"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
     <t>Organization.active</t>
   </si>
   <si>
@@ -1239,8 +1244,8 @@
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23T00:00:00+11:00"/&gt;
-  &lt;end value="2010-07-01T00:00:00+10:00"/&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
 &lt;/valuePeriod&gt;</t>
   </si>
   <si>
@@ -1554,7 +1559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM83"/>
+  <dimension ref="A1:AM84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4720,7 +4725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>157</v>
       </c>
@@ -4738,7 +4743,7 @@
         <v>49</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
@@ -4833,11 +4838,13 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4846,28 +4853,32 @@
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4876,7 +4887,7 @@
         <v>40</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>40</v>
@@ -4915,47 +4926,47 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4967,17 +4978,15 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -5014,31 +5023,31 @@
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>40</v>
@@ -5055,43 +5064,41 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -5115,60 +5122,60 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5176,34 +5183,34 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -5228,13 +5235,13 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -5252,7 +5259,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5270,7 +5277,7 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>182</v>
@@ -5279,9 +5286,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5289,13 +5296,13 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>40</v>
@@ -5304,19 +5311,19 @@
         <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -5329,7 +5336,7 @@
         <v>40</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>40</v>
@@ -5341,13 +5348,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -5365,7 +5372,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5380,13 +5387,13 @@
         <v>61</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -5394,7 +5401,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5417,18 +5424,20 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5440,7 +5449,7 @@
         <v>40</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>40</v>
@@ -5476,7 +5485,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5491,13 +5500,13 @@
         <v>61</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5505,7 +5514,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5528,15 +5537,17 @@
         <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5549,7 +5560,7 @@
         <v>40</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>40</v>
@@ -5585,7 +5596,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5600,13 +5611,13 @@
         <v>61</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5614,7 +5625,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5637,17 +5648,15 @@
         <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5696,7 +5705,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5711,25 +5720,23 @@
         <v>61</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5738,10 +5745,10 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>40</v>
@@ -5750,20 +5757,18 @@
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5772,7 +5777,7 @@
         <v>40</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>40</v>
@@ -5811,38 +5816,40 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5851,28 +5858,32 @@
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5881,7 +5892,7 @@
         <v>40</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>40</v>
@@ -5920,47 +5931,47 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5972,17 +5983,15 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -6019,31 +6028,31 @@
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>40</v>
@@ -6060,43 +6069,41 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
@@ -6120,60 +6127,60 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6181,34 +6188,34 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -6233,13 +6240,13 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
@@ -6257,7 +6264,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6275,7 +6282,7 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>182</v>
@@ -6284,9 +6291,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6294,13 +6301,13 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>40</v>
@@ -6309,19 +6316,19 @@
         <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6334,7 +6341,7 @@
         <v>40</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>40</v>
@@ -6346,13 +6353,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6370,7 +6377,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6385,13 +6392,13 @@
         <v>61</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6399,7 +6406,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6422,18 +6429,20 @@
         <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6445,7 +6454,7 @@
         <v>40</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>40</v>
@@ -6481,7 +6490,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6496,13 +6505,13 @@
         <v>61</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6510,7 +6519,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6533,15 +6542,17 @@
         <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6554,7 +6565,7 @@
         <v>40</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>40</v>
@@ -6590,7 +6601,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6605,13 +6616,13 @@
         <v>61</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6619,7 +6630,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6642,17 +6653,15 @@
         <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6701,7 +6710,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6716,25 +6725,23 @@
         <v>61</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6743,10 +6750,10 @@
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
@@ -6755,20 +6762,18 @@
         <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6777,7 +6782,7 @@
         <v>40</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>40</v>
@@ -6816,38 +6821,40 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6856,28 +6863,32 @@
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6886,7 +6897,7 @@
         <v>40</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>40</v>
@@ -6925,47 +6936,47 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>40</v>
@@ -6977,17 +6988,15 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -7024,31 +7033,31 @@
         <v>40</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>40</v>
@@ -7065,43 +7074,41 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
@@ -7125,60 +7132,60 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7186,34 +7193,34 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7238,13 +7245,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
@@ -7262,7 +7269,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7280,7 +7287,7 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>182</v>
@@ -7289,9 +7296,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7299,13 +7306,13 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
@@ -7314,19 +7321,19 @@
         <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7339,7 +7346,7 @@
         <v>40</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>40</v>
@@ -7351,13 +7358,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>40</v>
@@ -7375,7 +7382,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7390,13 +7397,13 @@
         <v>61</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
@@ -7404,7 +7411,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7427,18 +7434,20 @@
         <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7450,7 +7459,7 @@
         <v>40</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>40</v>
@@ -7486,7 +7495,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7501,13 +7510,13 @@
         <v>61</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
@@ -7515,7 +7524,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7538,15 +7547,17 @@
         <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7559,7 +7570,7 @@
         <v>40</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>40</v>
@@ -7595,7 +7606,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7610,13 +7621,13 @@
         <v>61</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>40</v>
@@ -7624,7 +7635,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7647,17 +7658,15 @@
         <v>50</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7706,7 +7715,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7721,21 +7730,21 @@
         <v>61</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7743,41 +7752,37 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P56" t="s" s="2">
-        <v>244</v>
-      </c>
+      <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7821,7 +7826,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7836,21 +7841,21 @@
         <v>61</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7858,39 +7863,41 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="Q57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7910,13 +7917,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>40</v>
@@ -7934,13 +7941,13 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
@@ -7949,21 +7956,21 @@
         <v>61</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>66</v>
+        <v>248</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7971,13 +7978,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>40</v>
@@ -7986,19 +7993,19 @@
         <v>50</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -8023,13 +8030,13 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>40</v>
@@ -8047,36 +8054,36 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>40</v>
+        <v>261</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8084,34 +8091,34 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -8160,36 +8167,36 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8203,7 +8210,7 @@
         <v>42</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>40</v>
@@ -8212,19 +8219,19 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8273,7 +8280,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8282,19 +8289,19 @@
         <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>278</v>
+        <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>279</v>
+        <v>61</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
@@ -8302,7 +8309,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8325,19 +8332,19 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8386,7 +8393,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8395,27 +8402,27 @@
         <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>66</v>
+        <v>283</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8426,10 +8433,10 @@
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -8438,16 +8445,20 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>51</v>
+        <v>287</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>63</v>
+        <v>288</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>40</v>
       </c>
@@ -8495,28 +8506,28 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>65</v>
+        <v>286</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>66</v>
+        <v>295</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
@@ -8524,18 +8535,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8547,17 +8558,15 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8594,31 +8603,31 @@
         <v>40</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>40</v>
@@ -8635,43 +8644,41 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>296</v>
+        <v>70</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>297</v>
+        <v>71</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
       </c>
@@ -8683,7 +8690,7 @@
         <v>40</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>40</v>
@@ -8695,52 +8702,52 @@
         <v>40</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>304</v>
+        <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>306</v>
+        <v>66</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>40</v>
@@ -8748,7 +8755,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8765,7 +8772,7 @@
         <v>40</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>50</v>
@@ -8774,15 +8781,17 @@
         <v>125</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8794,7 +8803,7 @@
         <v>40</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>40</v>
@@ -8809,10 +8818,10 @@
         <v>178</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>40</v>
@@ -8830,7 +8839,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8845,13 +8854,13 @@
         <v>61</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>40</v>
@@ -8859,7 +8868,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8882,20 +8891,18 @@
         <v>50</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
       </c>
@@ -8907,7 +8914,7 @@
         <v>40</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>40</v>
@@ -8919,13 +8926,13 @@
         <v>40</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>40</v>
+        <v>316</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>40</v>
@@ -8943,7 +8950,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8961,18 +8968,18 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8983,10 +8990,10 @@
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>326</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>40</v>
@@ -8998,13 +9005,17 @@
         <v>51</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
       </c>
@@ -9016,7 +9027,7 @@
         <v>40</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>40</v>
@@ -9052,13 +9063,13 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
@@ -9067,13 +9078,13 @@
         <v>61</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
@@ -9081,18 +9092,18 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>335</v>
+        <v>40</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>49</v>
+        <v>329</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>50</v>
@@ -9107,10 +9118,10 @@
         <v>51</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9125,7 +9136,7 @@
         <v>40</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>40</v>
@@ -9161,13 +9172,13 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
@@ -9176,25 +9187,25 @@
         <v>61</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9204,7 +9215,7 @@
         <v>49</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -9216,14 +9227,12 @@
         <v>51</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -9236,7 +9245,7 @@
         <v>40</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>40</v>
@@ -9272,7 +9281,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9287,25 +9296,25 @@
         <v>61</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>40</v>
+        <v>343</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9315,7 +9324,7 @@
         <v>49</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
@@ -9327,12 +9336,14 @@
         <v>51</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9345,7 +9356,7 @@
         <v>40</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>40</v>
@@ -9357,13 +9368,13 @@
         <v>40</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>357</v>
+        <v>40</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>40</v>
@@ -9381,7 +9392,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9396,13 +9407,13 @@
         <v>61</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>359</v>
+        <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
@@ -9410,11 +9421,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9436,10 +9447,10 @@
         <v>51</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9454,7 +9465,7 @@
         <v>40</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>366</v>
+        <v>40</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>40</v>
@@ -9466,13 +9477,13 @@
         <v>40</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>40</v>
@@ -9490,7 +9501,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9505,13 +9516,13 @@
         <v>61</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
@@ -9519,11 +9530,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>40</v>
+        <v>366</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9545,14 +9556,12 @@
         <v>51</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
@@ -9565,7 +9574,7 @@
         <v>40</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>40</v>
+        <v>369</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>40</v>
@@ -9601,7 +9610,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9616,21 +9625,21 @@
         <v>61</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9644,7 +9653,7 @@
         <v>49</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>40</v>
@@ -9653,18 +9662,18 @@
         <v>50</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
       </c>
@@ -9676,7 +9685,7 @@
         <v>40</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>383</v>
+        <v>40</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>40</v>
@@ -9712,7 +9721,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9727,13 +9736,13 @@
         <v>61</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>217</v>
+        <v>379</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>40</v>
@@ -9741,7 +9750,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9764,17 +9773,17 @@
         <v>50</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>40</v>
@@ -9787,7 +9796,7 @@
         <v>40</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>40</v>
+        <v>386</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>40</v>
@@ -9838,13 +9847,13 @@
         <v>61</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>246</v>
+        <v>388</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>40</v>
@@ -9852,7 +9861,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9863,7 +9872,7 @@
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>40</v>
@@ -9872,22 +9881,20 @@
         <v>40</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>40</v>
@@ -9936,13 +9943,13 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
@@ -9951,13 +9958,13 @@
         <v>61</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>40</v>
@@ -9965,7 +9972,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9976,7 +9983,7 @@
         <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>40</v>
@@ -9988,16 +9995,20 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>51</v>
+        <v>396</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>63</v>
+        <v>397</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>40</v>
       </c>
@@ -10045,19 +10056,19 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>65</v>
+        <v>395</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>40</v>
@@ -10066,7 +10077,7 @@
         <v>40</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>66</v>
+        <v>401</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>40</v>
@@ -10074,18 +10085,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>40</v>
@@ -10097,17 +10108,15 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>40</v>
@@ -10156,19 +10165,19 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>40</v>
@@ -10185,11 +10194,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10202,26 +10211,24 @@
         <v>40</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>69</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>404</v>
+        <v>71</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="N78" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>40</v>
       </c>
@@ -10269,7 +10276,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10290,7 +10297,7 @@
         <v>40</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>40</v>
@@ -10298,40 +10305,42 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>40</v>
+        <v>405</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>184</v>
+        <v>69</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M79" s="2"/>
+      <c r="M79" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N79" t="s" s="2">
-        <v>409</v>
+        <v>155</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -10356,13 +10365,13 @@
         <v>40</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>410</v>
+        <v>40</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>411</v>
+        <v>40</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>40</v>
@@ -10380,19 +10389,19 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>40</v>
@@ -10401,7 +10410,7 @@
         <v>40</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>412</v>
+        <v>148</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>40</v>
@@ -10409,7 +10418,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10432,17 +10441,17 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>414</v>
+        <v>184</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>40</v>
@@ -10467,13 +10476,13 @@
         <v>40</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>40</v>
+        <v>413</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>40</v>
+        <v>414</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>40</v>
@@ -10491,7 +10500,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10509,10 +10518,10 @@
         <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>418</v>
+        <v>40</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>40</v>
@@ -10520,7 +10529,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10531,7 +10540,7 @@
         <v>41</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>40</v>
@@ -10543,17 +10552,17 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -10602,13 +10611,13 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
@@ -10620,10 +10629,10 @@
         <v>40</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>40</v>
@@ -10631,7 +10640,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10642,7 +10651,7 @@
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>40</v>
@@ -10654,17 +10663,17 @@
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>40</v>
@@ -10713,13 +10722,13 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>40</v>
@@ -10731,10 +10740,10 @@
         <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>40</v>
@@ -10742,7 +10751,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10753,7 +10762,7 @@
         <v>41</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>40</v>
@@ -10765,17 +10774,17 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>433</v>
+        <v>287</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>40</v>
@@ -10824,13 +10833,13 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>40</v>
@@ -10842,17 +10851,128 @@
         <v>40</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>40</v>
+        <v>433</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AM84" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM83">
+  <autoFilter ref="A1:AM84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10862,7 +10982,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-C4BB-Organization.xlsx
+++ b/StructureDefinition-C4BB-Organization.xlsx
@@ -789,6 +789,12 @@
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;type&gt;
+    &lt;coding&gt;
+      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBIdentifierType"/&gt;
+      &lt;code value="naiccode"/&gt;
+    &lt;/coding&gt;
+  &lt;/type&gt;
   &lt;system value="urn:oid:2.16.840.1.113883.6.300"/&gt;
 &lt;/valueIdentifier&gt;</t>
   </si>

--- a/StructureDefinition-C4BB-Organization.xlsx
+++ b/StructureDefinition-C4BB-Organization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="390">
   <si>
     <t>Path</t>
   </si>
@@ -291,7 +291,7 @@
     <t>When the resource last changed - e.g. when the version changed.</t>
   </si>
   <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+    <t>Defines the date the Resource was created or updated, whichever comes last (163).  Payers SHALL provide the last time the data was updated or the date of creation in the payer’s system of record, whichever comes last. Apps will use the meta.lastUpdated value to determine if the Reference resources are as of the current date or date of service.</t>
   </si>
   <si>
     <t>Meta.lastUpdated</t>
@@ -330,7 +330,7 @@
     <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+    <t>CPCDS data element (190)</t>
   </si>
   <si>
     <t>Meta.profile</t>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>National Provider Identifier (NPI)</t>
+  </si>
+  <si>
+    <t>The National Provider Identifier assigned to the Billing Provider, Care Team members and the Service Facility (93, 94, 95, 97, 99, 100, 122, 173).  Service Facility NPI will be populated with the value 'NPI has not been assigned' if an NPI has not been assigned to the Service Location Organization</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -561,183 +564,6 @@
 &lt;/valueIdentifier&gt;</t>
   </si>
   <si>
-    <t>Organization.identifier.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Organization.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Organization.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Organization.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Organization.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
     <t>CLIA</t>
   </si>
   <si>
@@ -772,6 +598,9 @@
     <t>Payer ID</t>
   </si>
   <si>
+    <t>Internal value assigned by the payer responsible for the claim (2)</t>
+  </si>
+  <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
   &lt;type&gt;
     &lt;coding&gt;
@@ -786,6 +615,9 @@
   </si>
   <si>
     <t>NAIC Code</t>
+  </si>
+  <si>
+    <t>NAIC Code of the payer responsible for the claim (2)</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -837,6 +669,10 @@
     <t>Organization.type</t>
   </si>
   <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
     <t>Kind of organization</t>
   </si>
   <si>
@@ -955,7 +791,7 @@
     <t>An address for the organization.</t>
   </si>
   <si>
-    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
+    <t>Enter address of the location where the services were rendered.  If the location is a component of the Billing Provider, do not populate this data element</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
@@ -999,6 +835,9 @@
     <t>home</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>The use of an address.</t>
   </si>
   <si>
@@ -1238,6 +1077,10 @@
   </si>
   <si>
     <t>Organization.address.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
   </si>
   <si>
     <t>Time period when address was/is in use</t>
@@ -1258,6 +1101,9 @@
     <t>Address.period</t>
   </si>
   <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
     <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
@@ -1265,6 +1111,10 @@
   </si>
   <si>
     <t>Organization.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
   </si>
   <si>
     <t>The organization of which this organization forms a part</t>
@@ -1565,7 +1415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM84"/>
+  <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1611,7 +1461,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="218.1953125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="107.39453125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="50.96484375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1954,7 +1804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>56</v>
       </c>
@@ -1964,13 +1814,13 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
@@ -3763,7 +3613,9 @@
       <c r="L20" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N20" t="s" s="2">
         <v>162</v>
       </c>
@@ -3775,7 +3627,7 @@
         <v>40</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>40</v>
@@ -3843,9 +3695,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3863,19 +3717,21 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3884,7 +3740,7 @@
         <v>40</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>40</v>
@@ -3923,40 +3779,42 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="C22" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3966,27 +3824,29 @@
         <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3995,7 +3855,7 @@
         <v>40</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>40</v>
@@ -4022,19 +3882,19 @@
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -4043,29 +3903,31 @@
         <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>40</v>
       </c>
@@ -4074,31 +3936,31 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -4108,7 +3970,7 @@
         <v>40</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>40</v>
@@ -4123,13 +3985,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -4147,47 +4009,49 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>50</v>
@@ -4199,19 +4063,19 @@
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="N24" t="s" s="2">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4221,7 +4085,7 @@
         <v>40</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>40</v>
@@ -4236,13 +4100,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -4260,36 +4124,36 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4297,39 +4161,41 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="Q25" t="s" s="2">
         <v>40</v>
       </c>
@@ -4337,7 +4203,7 @@
         <v>40</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>40</v>
@@ -4373,7 +4239,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4388,21 +4254,21 @@
         <v>61</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4413,7 +4279,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -4425,18 +4291,20 @@
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4448,7 +4316,7 @@
         <v>40</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>40</v>
@@ -4460,13 +4328,13 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4484,13 +4352,13 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -4499,21 +4367,21 @@
         <v>61</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>209</v>
+        <v>66</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>40</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4521,13 +4389,13 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
@@ -4536,16 +4404,20 @@
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4593,7 +4465,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4602,19 +4474,19 @@
         <v>49</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4622,7 +4494,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4633,7 +4505,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4642,21 +4514,23 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4704,13 +4578,13 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4719,25 +4593,23 @@
         <v>61</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4746,29 +4618,31 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N29" t="s" s="2">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4778,7 +4652,7 @@
         <v>40</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>40</v>
@@ -4817,7 +4691,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4826,31 +4700,29 @@
         <v>42</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B30" t="s" s="2">
         <v>232</v>
       </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4868,22 +4740,22 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4893,7 +4765,7 @@
         <v>40</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>40</v>
@@ -4932,7 +4804,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4941,27 +4813,27 @@
         <v>42</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>66</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5070,7 +4942,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5181,7 +5053,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5207,16 +5079,16 @@
         <v>125</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -5229,7 +5101,7 @@
         <v>40</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>40</v>
@@ -5241,13 +5113,13 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -5265,7 +5137,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5280,21 +5152,21 @@
         <v>61</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5302,13 +5174,13 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>40</v>
@@ -5317,20 +5189,18 @@
         <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5342,7 +5212,7 @@
         <v>40</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>40</v>
@@ -5354,13 +5224,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -5378,7 +5248,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5396,10 +5266,10 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -5407,7 +5277,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5430,19 +5300,19 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5455,7 +5325,7 @@
         <v>40</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>40</v>
@@ -5491,7 +5361,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5506,21 +5376,21 @@
         <v>61</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5531,10 +5401,10 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>49</v>
+        <v>276</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>40</v>
@@ -5546,14 +5416,12 @@
         <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5566,7 +5434,7 @@
         <v>40</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>40</v>
@@ -5602,13 +5470,13 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5617,25 +5485,25 @@
         <v>61</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>211</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>212</v>
+        <v>284</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5645,7 +5513,7 @@
         <v>49</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -5654,13 +5522,13 @@
         <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>215</v>
+        <v>287</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5675,7 +5543,7 @@
         <v>40</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>40</v>
@@ -5711,7 +5579,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>216</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5726,13 +5594,13 @@
         <v>61</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>217</v>
+        <v>290</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5740,11 +5608,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5763,16 +5631,16 @@
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5786,7 +5654,7 @@
         <v>40</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>40</v>
@@ -5822,7 +5690,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>225</v>
+        <v>299</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5837,13 +5705,13 @@
         <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5851,20 +5719,18 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>50</v>
@@ -5876,20 +5742,16 @@
         <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>236</v>
+        <v>304</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5898,7 +5760,7 @@
         <v>40</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>40</v>
@@ -5913,13 +5775,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5937,40 +5799,40 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>157</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>166</v>
+        <v>311</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>171</v>
+        <v>312</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5980,22 +5842,22 @@
         <v>49</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>63</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>64</v>
+        <v>315</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6010,7 +5872,7 @@
         <v>40</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>40</v>
+        <v>316</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>40</v>
@@ -6046,7 +5908,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>65</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6058,56 +5920,56 @@
         <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>40</v>
+        <v>318</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>66</v>
+        <v>320</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>172</v>
+        <v>321</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>70</v>
+        <v>322</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>71</v>
+        <v>323</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>72</v>
+        <v>324</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6145,40 +6007,40 @@
         <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>40</v>
+        <v>326</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>66</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
@@ -6186,7 +6048,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>173</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6203,25 +6065,23 @@
         <v>40</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>125</v>
+        <v>330</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>174</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>177</v>
+        <v>333</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -6234,7 +6094,7 @@
         <v>40</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>40</v>
@@ -6246,13 +6106,13 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
@@ -6270,7 +6130,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>181</v>
+        <v>335</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6285,21 +6145,21 @@
         <v>61</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>148</v>
+        <v>337</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>182</v>
+        <v>338</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>183</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6307,13 +6167,13 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>40</v>
@@ -6322,19 +6182,17 @@
         <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>184</v>
+        <v>340</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>185</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>188</v>
+        <v>343</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6359,13 +6217,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6383,7 +6241,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>191</v>
+        <v>339</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6398,13 +6256,13 @@
         <v>61</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>182</v>
+        <v>344</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6412,7 +6270,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>193</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6423,7 +6281,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6432,22 +6290,22 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>346</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>194</v>
+        <v>347</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>196</v>
+        <v>349</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>197</v>
+        <v>350</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6460,7 +6318,7 @@
         <v>40</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>40</v>
@@ -6496,13 +6354,13 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>199</v>
+        <v>345</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
@@ -6511,13 +6369,13 @@
         <v>61</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>202</v>
+        <v>351</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6525,7 +6383,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>203</v>
+        <v>352</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6545,20 +6403,18 @@
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6571,7 +6427,7 @@
         <v>40</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>40</v>
@@ -6607,7 +6463,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6619,16 +6475,16 @@
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6636,18 +6492,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>353</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
@@ -6656,18 +6512,20 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>213</v>
+        <v>69</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6716,28 +6574,28 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>40</v>
@@ -6745,41 +6603,43 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>220</v>
+        <v>354</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>221</v>
+        <v>69</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>223</v>
+        <v>357</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6827,40 +6687,38 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>225</v>
+        <v>358</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6869,31 +6727,29 @@
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>239</v>
+        <v>360</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>162</v>
+        <v>362</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6903,7 +6759,7 @@
         <v>40</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>40</v>
@@ -6918,13 +6774,13 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>40</v>
+        <v>364</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6942,36 +6798,36 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>157</v>
+        <v>359</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>166</v>
+        <v>365</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>171</v>
+        <v>366</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6994,16 +6850,18 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>51</v>
+        <v>367</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>63</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>64</v>
+        <v>369</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -7051,7 +6909,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>65</v>
+        <v>366</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7063,16 +6921,16 @@
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>40</v>
+        <v>371</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>66</v>
+        <v>372</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -7080,11 +6938,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>172</v>
+        <v>373</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7103,18 +6961,18 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>70</v>
+        <v>374</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
@@ -7150,19 +7008,19 @@
         <v>40</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7174,16 +7032,16 @@
         <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>40</v>
+        <v>377</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>66</v>
+        <v>378</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7191,7 +7049,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>173</v>
+        <v>379</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7208,25 +7066,23 @@
         <v>40</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>174</v>
+        <v>380</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>177</v>
+        <v>382</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7251,13 +7107,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
@@ -7275,7 +7131,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>181</v>
+        <v>379</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7293,18 +7149,18 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>148</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>182</v>
+        <v>384</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>183</v>
+        <v>385</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7312,34 +7168,32 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>184</v>
+        <v>386</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>185</v>
+        <v>387</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>188</v>
+        <v>389</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7364,13 +7218,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>40</v>
@@ -7388,13 +7242,13 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>191</v>
+        <v>385</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
@@ -7406,3579 +7260,17 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="Q57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AM84" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM84">
+  <autoFilter ref="A1:AM52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10988,7 +7280,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
